--- a/PowerQuery/Random People Names.xlsx
+++ b/PowerQuery/Random People Names.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-projects\database-stuffs\PowerQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C868C-8606-4E8A-8AE9-DD2CBD905E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778066FC-101F-426C-B126-CB2A06EFDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{B0F48BCC-1B8D-4FC1-BE38-F9D41FF94988}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" activeTab="2" xr2:uid="{B0F48BCC-1B8D-4FC1-BE38-F9D41FF94988}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$D$151</definedName>
@@ -24,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -809,14 +808,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,7 +1768,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB40389C-2EDC-4FD5-857C-F9D2C139AABD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB40389C-2EDC-4FD5-857C-F9D2C139AABD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -2135,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AC2CFF-3DF3-477C-8037-2AD6FD1F2423}">
   <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2157,7 +2155,7 @@
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>75</v>
       </c>
     </row>
@@ -2165,7 +2163,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>75</v>
       </c>
     </row>
@@ -2173,7 +2171,7 @@
       <c r="A6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>150</v>
       </c>
     </row>
@@ -4324,7 +4322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B96676-594E-4DEB-B452-F8DCD558622F}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E151"/>
     </sheetView>
   </sheetViews>
@@ -7365,21 +7363,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF05F52-ED80-441C-8F33-8587BDE44B5D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>